--- a/data/industry/CFM/LPDDR.xlsx
+++ b/data/industry/CFM/LPDDR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2714C7E-6BA0-488B-9065-A1EEBE67A8B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F78A4F8-F8BA-48EC-AFA8-3FE84194780D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="9">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -62,17 +62,19 @@
     <t>Average</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>UTC+8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -127,53 +129,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -464,7 +459,8 @@
     <col min="2" max="2" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="5" max="7" width="9" style="11"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -480,13 +476,13 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -503,13 +499,13 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="F2" s="10">
         <v>30.5</v>
       </c>
-      <c r="F2" s="8">
-        <v>26.5</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="G2" s="10">
         <v>28</v>
       </c>
     </row>
@@ -526,13 +522,13 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
+        <v>28.5</v>
+      </c>
+      <c r="F3" s="10">
         <v>32.5</v>
       </c>
-      <c r="F3" s="8">
-        <v>28.5</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="G3" s="10">
         <v>30</v>
       </c>
     </row>
@@ -549,13 +545,13 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
+        <v>28.5</v>
+      </c>
+      <c r="F4" s="10">
         <v>32.5</v>
       </c>
-      <c r="F4" s="8">
-        <v>28.5</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>30</v>
       </c>
     </row>
@@ -572,13 +568,13 @@
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="F5" s="10">
         <v>34.5</v>
       </c>
-      <c r="F5" s="8">
-        <v>30.5</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>32</v>
       </c>
     </row>
@@ -595,13 +591,13 @@
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="F6" s="10">
         <v>34.5</v>
       </c>
-      <c r="F6" s="8">
-        <v>30.5</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>32</v>
       </c>
     </row>
@@ -618,13 +614,13 @@
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="F7" s="10">
         <v>34.5</v>
       </c>
-      <c r="F7" s="8">
-        <v>30.5</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>32</v>
       </c>
     </row>
@@ -641,13 +637,13 @@
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="F8" s="10">
         <v>34.5</v>
       </c>
-      <c r="F8" s="8">
-        <v>30.5</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>32</v>
       </c>
     </row>
@@ -664,13 +660,13 @@
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="F9" s="10">
         <v>34.5</v>
       </c>
-      <c r="F9" s="8">
-        <v>30.5</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>32</v>
       </c>
     </row>
@@ -687,13 +683,13 @@
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="F10" s="10">
         <v>34.5</v>
       </c>
-      <c r="F10" s="8">
-        <v>30.5</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>32</v>
       </c>
     </row>
@@ -710,13 +706,13 @@
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="F11" s="10">
         <v>35.5</v>
       </c>
-      <c r="F11" s="8">
-        <v>31.5</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="G11" s="10">
         <v>33</v>
       </c>
     </row>
@@ -733,13 +729,13 @@
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="F12" s="10">
         <v>35.5</v>
       </c>
-      <c r="F12" s="8">
-        <v>31.5</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="G12" s="10">
         <v>33</v>
       </c>
     </row>
@@ -756,13 +752,13 @@
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="10">
+        <v>35.5</v>
+      </c>
+      <c r="F13" s="10">
         <v>39.5</v>
       </c>
-      <c r="F13" s="8">
-        <v>35.5</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="G13" s="10">
         <v>37</v>
       </c>
     </row>
@@ -779,13 +775,13 @@
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="F14" s="11">
         <v>39.5</v>
       </c>
-      <c r="F14" s="9">
-        <v>35.5</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>37</v>
       </c>
     </row>
@@ -802,13 +798,13 @@
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="F15" s="11">
         <v>39.5</v>
       </c>
-      <c r="F15" s="9">
-        <v>35.5</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11">
         <v>37</v>
       </c>
     </row>
@@ -825,13 +821,13 @@
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="10">
+        <v>42.5</v>
+      </c>
+      <c r="F16" s="10">
         <v>46.5</v>
       </c>
-      <c r="F16" s="8">
-        <v>42.5</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="G16" s="10">
         <v>44</v>
       </c>
     </row>
@@ -848,13 +844,13 @@
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="10">
+        <v>42.5</v>
+      </c>
+      <c r="F17" s="10">
         <v>46.5</v>
       </c>
-      <c r="F17" s="8">
-        <v>42.5</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="G17" s="10">
         <v>44</v>
       </c>
     </row>
@@ -871,13 +867,13 @@
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="10">
+        <v>49.5</v>
+      </c>
+      <c r="F18" s="10">
         <v>53.5</v>
       </c>
-      <c r="F18" s="8">
-        <v>49.5</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="G18" s="10">
         <v>51</v>
       </c>
     </row>
@@ -894,13 +890,13 @@
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="10">
+        <v>58.5</v>
+      </c>
+      <c r="F19" s="10">
         <v>62.5</v>
       </c>
-      <c r="F19" s="8">
-        <v>58.5</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="G19" s="10">
         <v>60</v>
       </c>
     </row>
@@ -917,13 +913,13 @@
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="10">
+        <v>58.5</v>
+      </c>
+      <c r="F20" s="10">
         <v>62.5</v>
       </c>
-      <c r="F20" s="8">
-        <v>58.5</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="G20" s="10">
         <v>60</v>
       </c>
     </row>
@@ -940,13 +936,13 @@
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="10">
+        <v>68.5</v>
+      </c>
+      <c r="F21" s="10">
         <v>72.5</v>
       </c>
-      <c r="F21" s="8">
-        <v>68.5</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="G21" s="10">
         <v>70</v>
       </c>
     </row>
@@ -963,13 +959,13 @@
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="10">
+        <v>68.5</v>
+      </c>
+      <c r="F22" s="10">
         <v>72.5</v>
       </c>
-      <c r="F22" s="8">
-        <v>68.5</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="G22" s="10">
         <v>70</v>
       </c>
     </row>
@@ -986,13 +982,13 @@
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="10">
+        <v>68.5</v>
+      </c>
+      <c r="F23" s="10">
         <v>72.5</v>
       </c>
-      <c r="F23" s="8">
-        <v>68.5</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="G23" s="10">
         <v>70</v>
       </c>
     </row>
@@ -1009,13 +1005,13 @@
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="10">
+        <v>68.5</v>
+      </c>
+      <c r="F24" s="10">
         <v>72.5</v>
       </c>
-      <c r="F24" s="8">
-        <v>68.5</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="G24" s="10">
         <v>70</v>
       </c>
     </row>
@@ -1032,13 +1028,13 @@
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="10">
+        <v>68.5</v>
+      </c>
+      <c r="F25" s="10">
         <v>72.5</v>
       </c>
-      <c r="F25" s="8">
-        <v>68.5</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="G25" s="10">
         <v>70</v>
       </c>
     </row>
@@ -1055,13 +1051,13 @@
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="F26" s="10">
         <v>87.5</v>
       </c>
-      <c r="F26" s="8">
-        <v>83.5</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="G26" s="10">
         <v>85</v>
       </c>
     </row>
@@ -1078,13 +1074,36 @@
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="F27" s="10">
         <v>87.5</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="11">
         <v>83.5</v>
       </c>
-      <c r="G27" s="8">
+      <c r="F28" s="11">
+        <v>87.5</v>
+      </c>
+      <c r="G28" s="11">
         <v>85</v>
       </c>
     </row>
@@ -1097,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C002ACE-9D35-4283-B798-CF0C9347B851}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1128,8 @@
     <col min="2" max="2" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="5" max="7" width="9" style="11"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1125,13 +1145,13 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1148,13 +1168,13 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
+        <v>20.2</v>
+      </c>
+      <c r="F2" s="10">
         <v>24</v>
       </c>
-      <c r="F2" s="8">
-        <v>20.2</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="G2" s="10">
         <v>22</v>
       </c>
     </row>
@@ -1171,13 +1191,13 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
+        <v>21.7</v>
+      </c>
+      <c r="F3" s="10">
         <v>25.5</v>
       </c>
-      <c r="F3" s="8">
-        <v>21.7</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="G3" s="10">
         <v>23.5</v>
       </c>
     </row>
@@ -1194,13 +1214,13 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
+        <v>21.7</v>
+      </c>
+      <c r="F4" s="10">
         <v>25.5</v>
       </c>
-      <c r="F4" s="8">
-        <v>21.7</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>23.5</v>
       </c>
     </row>
@@ -1217,13 +1237,13 @@
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="F5" s="10">
         <v>27</v>
       </c>
-      <c r="F5" s="8">
-        <v>23.2</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>25</v>
       </c>
     </row>
@@ -1240,13 +1260,13 @@
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="F6" s="10">
         <v>27</v>
       </c>
-      <c r="F6" s="8">
-        <v>23.2</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>25</v>
       </c>
     </row>
@@ -1263,13 +1283,13 @@
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="F7" s="10">
         <v>27</v>
       </c>
-      <c r="F7" s="8">
-        <v>23.2</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>25</v>
       </c>
     </row>
@@ -1286,13 +1306,13 @@
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="F8" s="10">
         <v>27</v>
       </c>
-      <c r="F8" s="8">
-        <v>23.2</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>25</v>
       </c>
     </row>
@@ -1309,13 +1329,13 @@
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="F9" s="10">
         <v>27</v>
       </c>
-      <c r="F9" s="8">
-        <v>23.2</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>25</v>
       </c>
     </row>
@@ -1332,13 +1352,13 @@
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="F10" s="10">
         <v>27</v>
       </c>
-      <c r="F10" s="8">
-        <v>23.2</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>25</v>
       </c>
     </row>
@@ -1355,13 +1375,13 @@
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="10">
+        <v>23.7</v>
+      </c>
+      <c r="F11" s="10">
         <v>27.5</v>
       </c>
-      <c r="F11" s="8">
-        <v>23.7</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="G11" s="10">
         <v>25.5</v>
       </c>
     </row>
@@ -1378,13 +1398,13 @@
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="10">
+        <v>23.7</v>
+      </c>
+      <c r="F12" s="10">
         <v>27.5</v>
       </c>
-      <c r="F12" s="8">
-        <v>23.7</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="G12" s="10">
         <v>25.5</v>
       </c>
     </row>
@@ -1401,13 +1421,13 @@
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="10">
+        <v>26.7</v>
+      </c>
+      <c r="F13" s="10">
         <v>30.5</v>
       </c>
-      <c r="F13" s="8">
-        <v>26.7</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="G13" s="10">
         <v>28.5</v>
       </c>
     </row>
@@ -1424,13 +1444,13 @@
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
+        <v>26.7</v>
+      </c>
+      <c r="F14" s="11">
         <v>30.5</v>
       </c>
-      <c r="F14" s="8">
-        <v>26.7</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="G14" s="10">
         <v>28.5</v>
       </c>
     </row>
@@ -1447,13 +1467,13 @@
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
+        <v>26.7</v>
+      </c>
+      <c r="F15" s="11">
         <v>30.5</v>
       </c>
-      <c r="F15" s="8">
-        <v>26.7</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="G15" s="10">
         <v>28.5</v>
       </c>
     </row>
@@ -1470,13 +1490,13 @@
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F16" s="10">
         <v>36</v>
       </c>
-      <c r="F16" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="G16" s="10">
         <v>34</v>
       </c>
     </row>
@@ -1493,13 +1513,13 @@
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F17" s="10">
         <v>36</v>
       </c>
-      <c r="F17" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="G17" s="10">
         <v>34</v>
       </c>
     </row>
@@ -1516,13 +1536,13 @@
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="10">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F18" s="10">
         <v>42</v>
       </c>
-      <c r="F18" s="8">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="G18" s="10">
         <v>40</v>
       </c>
     </row>
@@ -1539,13 +1559,13 @@
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="10">
+        <v>46.2</v>
+      </c>
+      <c r="F19" s="10">
         <v>50</v>
       </c>
-      <c r="F19" s="8">
-        <v>46.2</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="G19" s="10">
         <v>48</v>
       </c>
     </row>
@@ -1562,13 +1582,13 @@
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="10">
+        <v>46.2</v>
+      </c>
+      <c r="F20" s="10">
         <v>50</v>
       </c>
-      <c r="F20" s="8">
-        <v>46.2</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="G20" s="10">
         <v>48</v>
       </c>
     </row>
@@ -1585,13 +1605,13 @@
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="10">
+        <v>51.2</v>
+      </c>
+      <c r="F21" s="10">
         <v>55</v>
       </c>
-      <c r="F21" s="8">
-        <v>51.2</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="G21" s="10">
         <v>53</v>
       </c>
     </row>
@@ -1608,13 +1628,13 @@
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="10">
+        <v>51.2</v>
+      </c>
+      <c r="F22" s="10">
         <v>55</v>
       </c>
-      <c r="F22" s="8">
-        <v>51.2</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="G22" s="10">
         <v>53</v>
       </c>
     </row>
@@ -1631,13 +1651,13 @@
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="10">
+        <v>51.2</v>
+      </c>
+      <c r="F23" s="10">
         <v>55</v>
       </c>
-      <c r="F23" s="8">
-        <v>51.2</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="G23" s="10">
         <v>53</v>
       </c>
     </row>
@@ -1654,13 +1674,13 @@
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="10">
+        <v>51.2</v>
+      </c>
+      <c r="F24" s="10">
         <v>55</v>
       </c>
-      <c r="F24" s="8">
-        <v>51.2</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="G24" s="10">
         <v>53</v>
       </c>
     </row>
@@ -1677,13 +1697,13 @@
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="10">
+        <v>51.2</v>
+      </c>
+      <c r="F25" s="10">
         <v>55</v>
       </c>
-      <c r="F25" s="8">
-        <v>51.2</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="G25" s="10">
         <v>53</v>
       </c>
     </row>
@@ -1700,13 +1720,13 @@
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="10">
+        <v>66.2</v>
+      </c>
+      <c r="F26" s="10">
         <v>70</v>
       </c>
-      <c r="F26" s="8">
-        <v>66.2</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="G26" s="10">
         <v>68</v>
       </c>
     </row>
@@ -1723,13 +1743,36 @@
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="10">
+        <v>66.2</v>
+      </c>
+      <c r="F27" s="10">
         <v>70</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="11">
         <v>66.2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="F28" s="11">
+        <v>70</v>
+      </c>
+      <c r="G28" s="11">
         <v>68</v>
       </c>
     </row>
@@ -1741,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B598A90B-5FE2-4525-ACAE-8E4129C35604}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1753,7 +1796,8 @@
     <col min="2" max="2" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="5" max="7" width="9" style="11"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1769,13 +1813,13 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1792,13 +1836,13 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
+        <v>15.5</v>
+      </c>
+      <c r="F2" s="10">
         <v>18.5</v>
       </c>
-      <c r="F2" s="8">
-        <v>15.5</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="G2" s="10">
         <v>17</v>
       </c>
     </row>
@@ -1815,13 +1859,13 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F3" s="10">
         <v>20</v>
       </c>
-      <c r="F3" s="8">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="G3" s="10">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -1838,13 +1882,13 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F4" s="10">
         <v>20</v>
       </c>
-      <c r="F4" s="8">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -1861,13 +1905,13 @@
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10">
         <v>21.9</v>
       </c>
-      <c r="F5" s="8">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>20.5</v>
       </c>
     </row>
@@ -1884,13 +1928,13 @@
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10">
         <v>21.9</v>
       </c>
-      <c r="F6" s="8">
-        <v>19</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>20.5</v>
       </c>
     </row>
@@ -1907,13 +1951,13 @@
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10">
         <v>21.9</v>
       </c>
-      <c r="F7" s="8">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>20.5</v>
       </c>
     </row>
@@ -1930,13 +1974,13 @@
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10">
         <v>21.9</v>
       </c>
-      <c r="F8" s="8">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>20.5</v>
       </c>
     </row>
@@ -1953,13 +1997,13 @@
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="10">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10">
         <v>21.9</v>
       </c>
-      <c r="F9" s="8">
-        <v>17</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>20.5</v>
       </c>
     </row>
@@ -1976,13 +2020,13 @@
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="10">
+        <v>19</v>
+      </c>
+      <c r="F10" s="10">
         <v>21.9</v>
       </c>
-      <c r="F10" s="8">
-        <v>19</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>20.5</v>
       </c>
     </row>
@@ -1999,13 +2043,13 @@
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="10">
+        <v>21</v>
+      </c>
+      <c r="F11" s="10">
         <v>23.9</v>
       </c>
-      <c r="F11" s="8">
-        <v>21</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="G11" s="10">
         <v>22.5</v>
       </c>
     </row>
@@ -2022,13 +2066,13 @@
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="10">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10">
         <v>23.9</v>
       </c>
-      <c r="F12" s="8">
-        <v>21</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="G12" s="10">
         <v>22.5</v>
       </c>
     </row>
@@ -2045,13 +2089,13 @@
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="F13" s="10">
         <v>25.4</v>
       </c>
-      <c r="F13" s="8">
-        <v>22.5</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="G13" s="10">
         <v>24</v>
       </c>
     </row>
@@ -2068,13 +2112,13 @@
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="F14" s="10">
         <v>25.4</v>
       </c>
-      <c r="F14" s="8">
-        <v>22.5</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="G14" s="10">
         <v>24</v>
       </c>
     </row>
@@ -2091,13 +2135,13 @@
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="F15" s="10">
         <v>25.4</v>
       </c>
-      <c r="F15" s="8">
-        <v>22.5</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="G15" s="10">
         <v>24</v>
       </c>
     </row>
@@ -2114,13 +2158,13 @@
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="F16" s="10">
         <v>29.4</v>
       </c>
-      <c r="F16" s="8">
-        <v>26.5</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="G16" s="10">
         <v>28</v>
       </c>
     </row>
@@ -2137,13 +2181,13 @@
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="F17" s="10">
         <v>29.4</v>
       </c>
-      <c r="F17" s="8">
-        <v>26.5</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="G17" s="10">
         <v>28</v>
       </c>
     </row>
@@ -2160,13 +2204,13 @@
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="F18" s="10">
         <v>34.4</v>
       </c>
-      <c r="F18" s="8">
-        <v>31.5</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="G18" s="10">
         <v>33</v>
       </c>
     </row>
@@ -2183,13 +2227,13 @@
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="F19" s="10">
         <v>40.4</v>
       </c>
-      <c r="F19" s="8">
-        <v>37.5</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="G19" s="10">
         <v>39</v>
       </c>
     </row>
@@ -2206,13 +2250,13 @@
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="10">
+        <v>38.5</v>
+      </c>
+      <c r="F20" s="10">
         <v>41.4</v>
       </c>
-      <c r="F20" s="8">
-        <v>38.5</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="G20" s="10">
         <v>40</v>
       </c>
     </row>
@@ -2229,13 +2273,13 @@
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="F21" s="10">
         <v>46.4</v>
       </c>
-      <c r="F21" s="8">
-        <v>43.5</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="G21" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2252,13 +2296,13 @@
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="F22" s="10">
         <v>46.4</v>
       </c>
-      <c r="F22" s="8">
-        <v>43.5</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="G22" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2275,13 +2319,13 @@
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="F23" s="10">
         <v>46.4</v>
       </c>
-      <c r="F23" s="8">
-        <v>43.5</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="G23" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2298,13 +2342,13 @@
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="F24" s="10">
         <v>46.4</v>
       </c>
-      <c r="F24" s="8">
-        <v>43.5</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="G24" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2321,13 +2365,13 @@
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="F25" s="10">
         <v>46.4</v>
       </c>
-      <c r="F25" s="8">
-        <v>43.5</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="G25" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2344,13 +2388,13 @@
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="10">
+        <v>56.5</v>
+      </c>
+      <c r="F26" s="10">
         <v>60</v>
       </c>
-      <c r="F26" s="8">
-        <v>56.5</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="G26" s="10">
         <v>58</v>
       </c>
     </row>
@@ -2367,13 +2411,36 @@
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="10">
+        <v>56.5</v>
+      </c>
+      <c r="F27" s="10">
         <v>60</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="11">
         <v>56.5</v>
       </c>
-      <c r="G27" s="8">
+      <c r="F28" s="11">
+        <v>60</v>
+      </c>
+      <c r="G28" s="11">
         <v>58</v>
       </c>
     </row>
@@ -2385,10 +2452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1E626F-37CF-4B96-A920-7652799AAE80}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2397,7 +2464,8 @@
     <col min="2" max="2" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="5" max="7" width="9" style="11"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2413,13 +2481,13 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2436,13 +2504,13 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="F2" s="10">
         <v>14</v>
       </c>
-      <c r="F2" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>12.5</v>
       </c>
     </row>
@@ -2459,13 +2527,13 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="F3" s="10">
         <v>15</v>
       </c>
-      <c r="F3" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>13.5</v>
       </c>
     </row>
@@ -2482,13 +2550,13 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="F4" s="10">
         <v>15</v>
       </c>
-      <c r="F4" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>13.5</v>
       </c>
     </row>
@@ -2505,13 +2573,13 @@
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="F5" s="10">
         <v>15.7</v>
       </c>
-      <c r="F5" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>14.2</v>
       </c>
     </row>
@@ -2528,13 +2596,13 @@
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="F6" s="10">
         <v>15.7</v>
       </c>
-      <c r="F6" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>14.2</v>
       </c>
     </row>
@@ -2551,13 +2619,13 @@
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="F7" s="10">
         <v>15.7</v>
       </c>
-      <c r="F7" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>14.2</v>
       </c>
     </row>
@@ -2574,13 +2642,13 @@
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="F8" s="10">
         <v>15.7</v>
       </c>
-      <c r="F8" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>14.2</v>
       </c>
     </row>
@@ -2597,13 +2665,13 @@
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="F9" s="10">
         <v>15.7</v>
       </c>
-      <c r="F9" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>14.2</v>
       </c>
     </row>
@@ -2620,13 +2688,13 @@
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="F10" s="10">
         <v>15.7</v>
       </c>
-      <c r="F10" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>14.2</v>
       </c>
     </row>
@@ -2643,13 +2711,13 @@
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="F11" s="10">
         <v>17</v>
       </c>
-      <c r="F11" s="12">
-        <v>14.5</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>15.5</v>
       </c>
     </row>
@@ -2666,13 +2734,13 @@
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="F12" s="10">
         <v>17</v>
       </c>
-      <c r="F12" s="12">
-        <v>14.5</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>15.5</v>
       </c>
     </row>
@@ -2689,13 +2757,13 @@
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10">
         <v>18.5</v>
       </c>
-      <c r="F13" s="12">
-        <v>16</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>17</v>
       </c>
     </row>
@@ -2712,13 +2780,13 @@
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
+        <v>16</v>
+      </c>
+      <c r="F14" s="10">
         <v>18.5</v>
       </c>
-      <c r="F14" s="12">
-        <v>16</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>17</v>
       </c>
     </row>
@@ -2735,13 +2803,13 @@
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10">
         <v>18.5</v>
       </c>
-      <c r="F15" s="12">
-        <v>16</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>17</v>
       </c>
     </row>
@@ -2758,13 +2826,13 @@
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
+        <v>19</v>
+      </c>
+      <c r="F16" s="10">
         <v>21.5</v>
       </c>
-      <c r="F16" s="12">
-        <v>19</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>20</v>
       </c>
     </row>
@@ -2781,13 +2849,13 @@
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
+        <v>19</v>
+      </c>
+      <c r="F17" s="10">
         <v>21.5</v>
       </c>
-      <c r="F17" s="12">
-        <v>19</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>20</v>
       </c>
     </row>
@@ -2804,13 +2872,13 @@
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
+        <v>22.6</v>
+      </c>
+      <c r="F18" s="10">
         <v>25.1</v>
       </c>
-      <c r="F18" s="12">
-        <v>22.6</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>23.6</v>
       </c>
     </row>
@@ -2827,13 +2895,13 @@
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
+        <v>28</v>
+      </c>
+      <c r="F19" s="10">
         <v>30.5</v>
       </c>
-      <c r="F19" s="12">
-        <v>28</v>
-      </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>29</v>
       </c>
     </row>
@@ -2850,13 +2918,13 @@
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10">
         <v>33.5</v>
       </c>
-      <c r="F20" s="12">
-        <v>31</v>
-      </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>32</v>
       </c>
     </row>
@@ -2873,13 +2941,13 @@
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
+        <v>36</v>
+      </c>
+      <c r="F21" s="10">
         <v>38.5</v>
       </c>
-      <c r="F21" s="12">
-        <v>36</v>
-      </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>37</v>
       </c>
     </row>
@@ -2896,13 +2964,13 @@
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
+        <v>36</v>
+      </c>
+      <c r="F22" s="10">
         <v>38.5</v>
       </c>
-      <c r="F22" s="12">
-        <v>36</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>37</v>
       </c>
     </row>
@@ -2919,13 +2987,13 @@
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
+        <v>36</v>
+      </c>
+      <c r="F23" s="10">
         <v>38.5</v>
       </c>
-      <c r="F23" s="12">
-        <v>36</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>37</v>
       </c>
     </row>
@@ -2942,13 +3010,13 @@
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
+        <v>36</v>
+      </c>
+      <c r="F24" s="10">
         <v>38.5</v>
       </c>
-      <c r="F24" s="12">
-        <v>36</v>
-      </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>37</v>
       </c>
     </row>
@@ -2965,13 +3033,13 @@
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
+        <v>36</v>
+      </c>
+      <c r="F25" s="10">
         <v>38.5</v>
       </c>
-      <c r="F25" s="12">
-        <v>36</v>
-      </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <v>37</v>
       </c>
     </row>
@@ -2988,13 +3056,13 @@
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
+        <v>41</v>
+      </c>
+      <c r="F26" s="10">
         <v>43.5</v>
       </c>
-      <c r="F26" s="12">
-        <v>41</v>
-      </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>42</v>
       </c>
     </row>
@@ -3011,13 +3079,36 @@
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
+        <v>41</v>
+      </c>
+      <c r="F27" s="10">
         <v>43.5</v>
       </c>
-      <c r="F27" s="12">
+      <c r="G27" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="11">
         <v>41</v>
       </c>
-      <c r="G27" s="12">
+      <c r="F28" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="G28" s="11">
         <v>42</v>
       </c>
     </row>
@@ -3029,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF2AA72-B42E-4BE9-BF50-F231D4EF8093}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3132,8 @@
     <col min="2" max="2" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="5" max="7" width="9" style="11"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3057,13 +3149,13 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3080,13 +3172,13 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="F2" s="10">
         <v>8</v>
       </c>
-      <c r="F2" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>7.2</v>
       </c>
     </row>
@@ -3103,13 +3195,13 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="F3" s="10">
         <v>8.6</v>
       </c>
-      <c r="F3" s="12">
-        <v>7.3</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>7.8</v>
       </c>
     </row>
@@ -3126,13 +3218,13 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="F4" s="10">
         <v>8.6</v>
       </c>
-      <c r="F4" s="12">
-        <v>7.3</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>7.8</v>
       </c>
     </row>
@@ -3149,13 +3241,13 @@
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F5" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>8</v>
       </c>
     </row>
@@ -3172,13 +3264,13 @@
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F6" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>8</v>
       </c>
     </row>
@@ -3195,13 +3287,13 @@
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F7" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>8</v>
       </c>
     </row>
@@ -3218,13 +3310,13 @@
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F8" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F8" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>8</v>
       </c>
     </row>
@@ -3241,13 +3333,13 @@
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F9" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>8</v>
       </c>
     </row>
@@ -3264,13 +3356,13 @@
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F10" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>8</v>
       </c>
     </row>
@@ -3287,13 +3379,13 @@
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="F11" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F11" s="12">
-        <v>7.9</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>8.4</v>
       </c>
     </row>
@@ -3310,13 +3402,13 @@
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="F12" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F12" s="12">
-        <v>7.9</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>8.4</v>
       </c>
     </row>
@@ -3333,13 +3425,13 @@
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13" s="10">
         <v>10.6</v>
       </c>
-      <c r="F13" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -3356,13 +3448,13 @@
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F14" s="10">
         <v>10.6</v>
       </c>
-      <c r="F14" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -3379,13 +3471,13 @@
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F15" s="10">
         <v>10.6</v>
       </c>
-      <c r="F15" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -3402,13 +3494,13 @@
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="F16" s="10">
         <v>12.8</v>
       </c>
-      <c r="F16" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>12</v>
       </c>
     </row>
@@ -3425,13 +3517,13 @@
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="F17" s="10">
         <v>12.8</v>
       </c>
-      <c r="F17" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>12</v>
       </c>
     </row>
@@ -3448,13 +3540,13 @@
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
+        <v>13.7</v>
+      </c>
+      <c r="F18" s="10">
         <v>15</v>
       </c>
-      <c r="F18" s="12">
-        <v>13.7</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>14.2</v>
       </c>
     </row>
@@ -3471,13 +3563,13 @@
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="F19" s="10">
         <v>17.8</v>
       </c>
-      <c r="F19" s="12">
-        <v>16.5</v>
-      </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>17</v>
       </c>
     </row>
@@ -3494,13 +3586,13 @@
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="F20" s="10">
         <v>17.8</v>
       </c>
-      <c r="F20" s="12">
-        <v>16.5</v>
-      </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>17</v>
       </c>
     </row>
@@ -3517,13 +3609,13 @@
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="F21" s="10">
         <v>19.8</v>
       </c>
-      <c r="F21" s="12">
-        <v>18.5</v>
-      </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>19</v>
       </c>
     </row>
@@ -3540,13 +3632,13 @@
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="F22" s="10">
         <v>19.8</v>
       </c>
-      <c r="F22" s="12">
-        <v>18.5</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>19</v>
       </c>
     </row>
@@ -3563,13 +3655,13 @@
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="F23" s="10">
         <v>19.8</v>
       </c>
-      <c r="F23" s="12">
-        <v>18.5</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>19</v>
       </c>
     </row>
@@ -3586,13 +3678,13 @@
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="F24" s="10">
         <v>19.8</v>
       </c>
-      <c r="F24" s="12">
-        <v>18.5</v>
-      </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>19</v>
       </c>
     </row>
@@ -3609,13 +3701,13 @@
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="F25" s="10">
         <v>19.8</v>
       </c>
-      <c r="F25" s="12">
-        <v>18.5</v>
-      </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <v>19</v>
       </c>
     </row>
@@ -3632,13 +3724,13 @@
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
+        <v>21.5</v>
+      </c>
+      <c r="F26" s="10">
         <v>22.8</v>
       </c>
-      <c r="F26" s="12">
-        <v>21.5</v>
-      </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>22</v>
       </c>
     </row>
@@ -3655,13 +3747,36 @@
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
+        <v>21.5</v>
+      </c>
+      <c r="F27" s="10">
         <v>22.8</v>
       </c>
-      <c r="F27" s="12">
+      <c r="G27" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="11">
         <v>21.5</v>
       </c>
-      <c r="G27" s="12">
+      <c r="F28" s="11">
+        <v>22.8</v>
+      </c>
+      <c r="G28" s="11">
         <v>22</v>
       </c>
     </row>
